--- a/station.xlsx
+++ b/station.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\مصانع\Maintain-luva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA48DE3-7FED-434E-BCD9-0EE63495506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9450A8A-40A0-4972-B053-E54CEB1984B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="محطه2.2 تمشيط " sheetId="15" r:id="rId1"/>
+    <sheet name="محطه2.2 تمشيط " sheetId="29" r:id="rId1"/>
     <sheet name="محطه2.1 تمشيط" sheetId="14" r:id="rId2"/>
     <sheet name="محطه 1 تنظيف" sheetId="1" r:id="rId3"/>
     <sheet name="محطه 1 ترطيب" sheetId="2" r:id="rId4"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
   <si>
     <t>pre filter</t>
   </si>
@@ -318,6 +318,70 @@
 HZ=50
 v=400
 I=307</t>
+  </si>
+  <si>
+    <t>Thick=10mm
+D=3m
+l=9440
+W=1700mm
+S.N=22062
+Air volume (max.) [m3/h] 300 000
+Dust concentration [mg/m 3] 0 – 80
+Static pressure [Pa] 250 – 400</t>
+  </si>
+  <si>
+    <t>LDF wall belt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80x9380 =D3000
+s.n=0008.3864N </t>
+  </si>
+  <si>
+    <t>Spiral hose D100x2500</t>
+  </si>
+  <si>
+    <t>خرطوم شفط</t>
+  </si>
+  <si>
+    <t>24/2x7265 =D3000 
+s.n=22012</t>
+  </si>
+  <si>
+    <t>V-belt 10/6x3960= D3000
+s.n= 0008.3824N</t>
+  </si>
+  <si>
+    <t>Sealing tape Type 2432= L=7190 
+s.n=30862</t>
+  </si>
+  <si>
+    <t>pre filter wall belt</t>
+  </si>
+  <si>
+    <t>Flat belt Type 2432 =L=5900 s.n=0087.9904E</t>
+  </si>
+  <si>
+    <t>Flat belt Type 2128 =L=4970 
+s.n=0087.9902E</t>
+  </si>
+  <si>
+    <t>Sealing tape Type 2128= L=6250
+s.n= 0008.4250N</t>
+  </si>
+  <si>
+    <t>rotary filter wall  belt</t>
+  </si>
+  <si>
+    <t>80x7820 =D2500 
+s.n=0008.3863N</t>
+  </si>
+  <si>
+    <t>24/2x6260 D2500 
+s.n=22011</t>
+  </si>
+  <si>
+    <t>10/6x3370 D2500 
+s.n=0008.3823N</t>
   </si>
 </sst>
 </file>
@@ -643,11 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160323BD-44D8-439D-8DA9-A288A4AF3F20}">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B37BBDF-22D3-4029-906A-2429E43CF939}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,14 +720,16 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -683,41 +749,62 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1069,7 +1156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F5681D-7270-4E8B-8DFB-48E46918AC7E}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -1245,10 +1332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC88398-E644-4160-83E9-D40DB9A7B29F}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,14 +1344,16 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1284,41 +1373,62 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1329,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,14 +1452,17 @@
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1369,41 +1482,68 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1486,10 +1626,117 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17F7FC7-9024-4E96-A025-58AF383A15EE}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AEEA4-E393-4D4E-8065-D502D84FB367}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,14 +1745,14 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1525,125 +1772,62 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AEEA4-E393-4D4E-8065-D502D84FB367}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1708,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B6DF5C-E92A-4C3F-8565-0E256EAC7D78}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1719,9 +1903,8 @@
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1751,7 +1934,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
         <v>5</v>
@@ -1778,6 +1961,15 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>55</v>

--- a/station.xlsx
+++ b/station.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAP ME\Desktop\مصانع\Maintain-luva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9450A8A-40A0-4972-B053-E54CEB1984B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34971999-E7EF-4AD8-AD3C-AE7AC0091C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="81">
   <si>
     <t>pre filter</t>
   </si>
@@ -382,6 +382,9 @@
   <si>
     <t>10/6x3370 D2500 
 s.n=0008.3823N</t>
+  </si>
+  <si>
+    <t>فني صيانه</t>
   </si>
 </sst>
 </file>
@@ -1890,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B6DF5C-E92A-4C3F-8565-0E256EAC7D78}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1911,7 @@
     <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1952,10 +1955,13 @@
         <v>17</v>
       </c>
       <c r="O1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
         <v>46</v>
       </c>

--- a/station.xlsx
+++ b/station.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,11 @@
       <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>تم التشحيم</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -627,6 +631,28 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>تم التشحيم</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -1179,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1233,6 +1233,32 @@
           <t>مكبس اليدوي</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>جنزير الفايبر سبرياتور انقطع وتم استبداله والاحتياطي بتاريخ9/11/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -534,7 +534,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ات</t>
+          <t>سير LW3450</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -1179,7 +1179,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1248,17 +1248,6 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -1327,7 +1327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,6 +1471,24 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>تم تشغيل كمبروسر بعد تغير ميكانيكل سيل بتاريخ 10/11/2025</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -827,7 +827,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Supply air fan 1 ,size(1600/24),power(37kw),amb(67),n(1000rpm),cap=(160000m3/h), pressure=(630pa)</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -832,7 +832,11 @@
           <t>Supply air fan 1 ,size(1600/24),power(37kw),amb(67),n(1000rpm),cap=(160000m3/h), pressure=(630pa)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Return air fan,size(1600/22),p=45kw,amp=82,n=1000rpm,cap=160000m3/h, pressure=675pa</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -837,7 +837,11 @@
           <t>Return air fan,size(1600/22),p=45kw,amp=82,n=1000rpm,cap=160000m3/h, pressure=675pa</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Suction fan,p=4kw,amp=7.3,n=3000rpm,cap=1500m3/h, pressure=4500pa</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">

--- a/station.xlsx
+++ b/station.xlsx
@@ -1487,7 +1487,11 @@
     <row r="3">
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>تم عمل صيانه 4000ساعه بواسطه م.رافت بتاريخ 17/11/2025</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>تم تشغيل كمبروسر بعد تغير ميكانيكل سيل بتاريخ 10/11/2025</t>

--- a/station.xlsx
+++ b/station.xlsx
@@ -1191,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,13 +1253,55 @@
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>راجع بري فلتر تنظيف -1-راجع سحب اول وتاني وملفات</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>راجع بري فلتر كرد1.2 clu,clx</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">راجع فلاتس الكرد </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>راجع تقليع التمشيط والبرم</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">راجع الغزل </t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -1191,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,28 +1280,6 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2202,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2366,6 +2344,28 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>تم تغير جير بوكس بتاريخ24/11/2025</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -1833,7 +1833,11 @@
 fB=1.7</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>تم تغير جير بوكس بتاريخ24/11/2025</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Sealing tape Type 2432= L=7190 

--- a/station.xlsx
+++ b/station.xlsx
@@ -2694,7 +2694,11 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>تم تركيب مروحه 1ترطيب بواسطه م.اندرو بتاريخ26/11/2825</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,7 +865,11 @@
 fB=1.7</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>تم تغير جير بوكس رقم 5 بتاريخ29/11/2025</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -881,6 +885,23 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -741,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,23 +885,6 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1517,7 +1500,11 @@
 فاصل زيت صغير=63623</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>تم تنظيف دراير وتفريغ مياه خزان بتاريخ24/11/2025 م.رافت</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -1195,7 +1195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,6 +1284,21 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>انذار جهاز إطفاء الحرائق الخاص بالسايلو ولم يوجد حريق بتاريخ24/12/2025</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -1378,7 +1378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1548,6 +1548,24 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>تم زياره من توكيل وعمل إصلاحات وتم تشغيل وجاري متابعه بتاريخ20/12/2025</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/station.xlsx
+++ b/station.xlsx
@@ -1378,7 +1378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1528,7 +1528,11 @@
       <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>تم عمل صيانه 4000س بواسطه م رأفت بتاريخ23/12/2025</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
@@ -1566,6 +1570,24 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>تم اعاده صيانه للكمبروسور بواسطه تيم كيزر وتم تشغيل ومتابعه بتاريخ23/12/2025</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
